--- a/biology/Neurosciences/Stanley_Finger/Stanley_Finger.xlsx
+++ b/biology/Neurosciences/Stanley_Finger/Stanley_Finger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanley Finger, né le 11 mai 1943 à New York, est un psychologue et historien des neurosciences américain.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Né à New-York dans l'arrondissement  du Bronx, Stanley Finger est titulaire d'un PhD de l'université de l'Indiana en 1968, date à laquelle il rejoint la Washington University in St. Louis (WUSTL), dans le Missouri[1].
-Carrière académique
-À partir de l'année 2000, il est titulaire de la chaire de psychologie à l'université de St. Louis où son activité d'enseignant comporte deux programmes : neurosciences fondamentales (Neural Sciences) et philosophie, neurosciences et psychologie (Philosophy-Neuroscience-Psycholopgy)[1].
-Entre autres activités, Finger a été le premier président de l'International Society for the History of Neurosciences et rédacteur en chef de la revue Journal of the History of the Neurosciences[1].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à New-York dans l'arrondissement  du Bronx, Stanley Finger est titulaire d'un PhD de l'université de l'Indiana en 1968, date à laquelle il rejoint la Washington University in St. Louis (WUSTL), dans le Missouri.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière académique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de l'année 2000, il est titulaire de la chaire de psychologie à l'université de St. Louis où son activité d'enseignant comporte deux programmes : neurosciences fondamentales (Neural Sciences) et philosophie, neurosciences et psychologie (Philosophy-Neuroscience-Psycholopgy).
+Entre autres activités, Finger a été le premier président de l'International Society for the History of Neurosciences et rédacteur en chef de la revue Journal of the History of the Neurosciences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stanley_Finger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanley_Finger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>S. Finger est l'auteur de plusieurs ouvrages, et de plus d'une centaine d'articles.
 (en) Origins of neuroscience : A History of explorations into brain function, New York, Oxford University Press, 1994, 462 p. (ISBN 0-19-506503-4)
